--- a/Code/Results/Cases/Case_0_155/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_155/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.358500578951552</v>
+        <v>4.91503868274033</v>
       </c>
       <c r="D2">
-        <v>9.644739826133177</v>
+        <v>8.431355421129439</v>
       </c>
       <c r="E2">
-        <v>30.47308227601826</v>
+        <v>16.32120603405771</v>
       </c>
       <c r="F2">
-        <v>63.87887782304185</v>
+        <v>47.03836406923052</v>
       </c>
       <c r="G2">
-        <v>2.022001288553528</v>
+        <v>3.670819438127647</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26.30071315424806</v>
+        <v>18.38214355479963</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.797631296551657</v>
+        <v>4.751603684059941</v>
       </c>
       <c r="D3">
-        <v>9.144852474335574</v>
+        <v>8.303994852852774</v>
       </c>
       <c r="E3">
-        <v>28.02243809837633</v>
+        <v>15.39775253343196</v>
       </c>
       <c r="F3">
-        <v>59.61571282144423</v>
+        <v>45.75581943335377</v>
       </c>
       <c r="G3">
-        <v>2.042327766846032</v>
+        <v>3.676673723525904</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.25723231042856</v>
+        <v>17.9275243313831</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.440874856302268</v>
+        <v>4.650282341326423</v>
       </c>
       <c r="D4">
-        <v>8.840501345869114</v>
+        <v>8.225840486797102</v>
       </c>
       <c r="E4">
-        <v>26.47980110638118</v>
+        <v>14.80847425741368</v>
       </c>
       <c r="F4">
-        <v>56.96271382267987</v>
+        <v>44.96147644748883</v>
       </c>
       <c r="G4">
-        <v>2.054773621503045</v>
+        <v>3.680437462719171</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.96070808321833</v>
+        <v>17.65165409275166</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.292159581451434</v>
+        <v>4.608820457233893</v>
       </c>
       <c r="D5">
-        <v>8.716933031529358</v>
+        <v>8.194022593157518</v>
       </c>
       <c r="E5">
-        <v>25.84016818516874</v>
+        <v>14.56301185418733</v>
       </c>
       <c r="F5">
-        <v>55.87158774444138</v>
+        <v>44.63647258934079</v>
       </c>
       <c r="G5">
-        <v>2.059852928208751</v>
+        <v>3.682014011228191</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.42093260634159</v>
+        <v>17.54025764445091</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.267258304262416</v>
+        <v>4.601927506422632</v>
       </c>
       <c r="D6">
-        <v>8.696437782157398</v>
+        <v>8.188741661046778</v>
       </c>
       <c r="E6">
-        <v>25.73325551895604</v>
+        <v>14.52194035389332</v>
       </c>
       <c r="F6">
-        <v>55.68977986563187</v>
+        <v>44.58243994344635</v>
       </c>
       <c r="G6">
-        <v>2.060697221851525</v>
+        <v>3.682278387913593</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.330588820769</v>
+        <v>17.52182806753881</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.438882998237691</v>
+        <v>4.649723772482862</v>
       </c>
       <c r="D7">
-        <v>8.838833217521705</v>
+        <v>8.225411230375277</v>
       </c>
       <c r="E7">
-        <v>26.47122106219273</v>
+        <v>14.80518503190238</v>
       </c>
       <c r="F7">
-        <v>56.94804013210024</v>
+        <v>44.95709803579393</v>
       </c>
       <c r="G7">
-        <v>2.05484207284668</v>
+        <v>3.680458550998166</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.95347587284975</v>
+        <v>17.65014735140937</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.16753814365121</v>
+        <v>4.858929443519326</v>
       </c>
       <c r="D8">
-        <v>9.471706064311169</v>
+        <v>8.38744364215739</v>
       </c>
       <c r="E8">
-        <v>29.6350101329557</v>
+        <v>16.00757100722909</v>
       </c>
       <c r="F8">
-        <v>62.4154540066206</v>
+        <v>46.59781212144669</v>
       </c>
       <c r="G8">
-        <v>2.029027756661007</v>
+        <v>3.672803033779343</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>25.60419952052323</v>
+        <v>18.22483218937939</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.510474203390835</v>
+        <v>5.258580251619456</v>
       </c>
       <c r="D9">
-        <v>10.74625289447521</v>
+        <v>8.704700534695242</v>
       </c>
       <c r="E9">
-        <v>35.62178829862378</v>
+        <v>18.21314253706674</v>
       </c>
       <c r="F9">
-        <v>72.93831986364995</v>
+        <v>49.74341967607151</v>
       </c>
       <c r="G9">
-        <v>1.977207579291716</v>
+        <v>3.659121444324172</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30.52199994000852</v>
+        <v>19.36911012000945</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.467197865791196</v>
+        <v>5.542251486543845</v>
       </c>
       <c r="D10">
-        <v>11.73077441886334</v>
+        <v>8.936358318052488</v>
       </c>
       <c r="E10">
-        <v>40.04691480473316</v>
+        <v>19.8650251140621</v>
       </c>
       <c r="F10">
-        <v>80.90095884776962</v>
+        <v>51.98906720236063</v>
       </c>
       <c r="G10">
-        <v>1.9366736069019</v>
+        <v>3.649864626687362</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>34.06002751279431</v>
+        <v>20.2093545199134</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.903386446952817</v>
+        <v>5.668512670147665</v>
       </c>
       <c r="D11">
-        <v>12.19950006198551</v>
+        <v>9.04119765235502</v>
       </c>
       <c r="E11">
-        <v>42.12144377905943</v>
+        <v>20.57613065875274</v>
       </c>
       <c r="F11">
-        <v>84.64144278358351</v>
+        <v>52.99240436809512</v>
       </c>
       <c r="G11">
-        <v>1.917108952468976</v>
+        <v>3.645822553192565</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35.68562576600188</v>
+        <v>20.58936138233784</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.06962834933813</v>
+        <v>5.715879428359457</v>
       </c>
       <c r="D12">
-        <v>12.38137547330798</v>
+        <v>9.080799962636652</v>
       </c>
       <c r="E12">
-        <v>42.92311807964207</v>
+        <v>20.83965277867336</v>
       </c>
       <c r="F12">
-        <v>86.07717426223678</v>
+        <v>53.36941990072702</v>
       </c>
       <c r="G12">
-        <v>1.90946334755734</v>
+        <v>3.644315930736049</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>36.3076162037227</v>
+        <v>20.7327770758288</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.03375886183491</v>
+        <v>5.705698638392763</v>
       </c>
       <c r="D13">
-        <v>12.34198180635053</v>
+        <v>9.072275570628467</v>
       </c>
       <c r="E13">
-        <v>42.74959613263561</v>
+        <v>20.78315397868444</v>
       </c>
       <c r="F13">
-        <v>85.76691613068115</v>
+        <v>53.28835760578055</v>
       </c>
       <c r="G13">
-        <v>1.911122043748022</v>
+        <v>3.644639344644899</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>36.17329029652206</v>
+        <v>20.70191398808173</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.917035237865056</v>
+        <v>5.672418734992571</v>
       </c>
       <c r="D14">
-        <v>12.21436517424555</v>
+        <v>9.044457836228318</v>
       </c>
       <c r="E14">
-        <v>42.18702226801939</v>
+        <v>20.5979259348419</v>
       </c>
       <c r="F14">
-        <v>84.75910788788445</v>
+        <v>53.02348197231183</v>
       </c>
       <c r="G14">
-        <v>1.916485234745969</v>
+        <v>3.645698122523621</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.73663922387878</v>
+        <v>20.60117089110901</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.845711363677719</v>
+        <v>5.651974538542479</v>
       </c>
       <c r="D15">
-        <v>12.13681793732548</v>
+        <v>9.027405315242685</v>
       </c>
       <c r="E15">
-        <v>41.84479517837084</v>
+        <v>20.48371982026693</v>
       </c>
       <c r="F15">
-        <v>84.14464735980522</v>
+        <v>52.86084825480727</v>
       </c>
       <c r="G15">
-        <v>1.919736736301541</v>
+        <v>3.646349775158401</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>35.47016296193821</v>
+        <v>20.53939503792302</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.438782890602649</v>
+        <v>5.533940024560027</v>
       </c>
       <c r="D16">
-        <v>11.70066684235918</v>
+        <v>8.929494173847173</v>
       </c>
       <c r="E16">
-        <v>39.9131295279318</v>
+        <v>19.81774456872767</v>
       </c>
       <c r="F16">
-        <v>80.65862660735849</v>
+        <v>51.92310330769706</v>
       </c>
       <c r="G16">
-        <v>1.937923798383089</v>
+        <v>3.650132161836786</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>33.95442956124474</v>
+        <v>20.18446105026619</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.189951299381786</v>
+        <v>5.460783016452749</v>
       </c>
       <c r="D17">
-        <v>11.43925708079806</v>
+        <v>8.869275403159387</v>
       </c>
       <c r="E17">
-        <v>38.74814752885585</v>
+        <v>19.39888802430311</v>
       </c>
       <c r="F17">
-        <v>78.54352893424932</v>
+        <v>51.34293392770114</v>
       </c>
       <c r="G17">
-        <v>1.948747928705715</v>
+        <v>3.652495605400301</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>33.03115217233189</v>
+        <v>19.9660296934871</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.046850352473337</v>
+        <v>5.418445541145674</v>
       </c>
       <c r="D18">
-        <v>11.29075655239696</v>
+        <v>8.8345892198179</v>
       </c>
       <c r="E18">
-        <v>38.08330669092435</v>
+        <v>19.1541728429543</v>
       </c>
       <c r="F18">
-        <v>77.33289245239141</v>
+        <v>51.00753755292568</v>
       </c>
       <c r="G18">
-        <v>1.954873525281059</v>
+        <v>3.65387090921125</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>32.50131094787901</v>
+        <v>19.84019346950317</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.99837942558948</v>
+        <v>5.40406770275662</v>
       </c>
       <c r="D19">
-        <v>11.24076233366432</v>
+        <v>8.822837115119365</v>
       </c>
       <c r="E19">
-        <v>37.85892570352264</v>
+        <v>19.07066252029075</v>
       </c>
       <c r="F19">
-        <v>76.92378453181958</v>
+        <v>50.89369621216496</v>
       </c>
       <c r="G19">
-        <v>1.956932181106302</v>
+        <v>3.654339304629665</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>32.32202222260152</v>
+        <v>19.79755830740032</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.21643210802921</v>
+        <v>5.468597908251446</v>
       </c>
       <c r="D20">
-        <v>11.46688437842749</v>
+        <v>8.875691109180126</v>
       </c>
       <c r="E20">
-        <v>38.87157787328906</v>
+        <v>19.44386898781196</v>
       </c>
       <c r="F20">
-        <v>78.76801800521083</v>
+        <v>51.40487202354698</v>
       </c>
       <c r="G20">
-        <v>1.947606499116066</v>
+        <v>3.652242367710552</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>33.12928740211401</v>
+        <v>19.98930404554962</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.951281586340368</v>
+        <v>5.682206280372289</v>
       </c>
       <c r="D21">
-        <v>12.25171633324958</v>
+        <v>9.052631397291929</v>
       </c>
       <c r="E21">
-        <v>42.35175302358354</v>
+        <v>20.65248782938567</v>
       </c>
       <c r="F21">
-        <v>85.0545091076695</v>
+        <v>53.10136409750766</v>
       </c>
       <c r="G21">
-        <v>1.914917120726196</v>
+        <v>3.645386483937823</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.86467905725952</v>
+        <v>20.63077598637985</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.43851321335785</v>
+        <v>5.819196796718298</v>
       </c>
       <c r="D22">
-        <v>12.79134018768554</v>
+        <v>9.167691625065979</v>
       </c>
       <c r="E22">
-        <v>44.72621026084947</v>
+        <v>21.40884756997446</v>
       </c>
       <c r="F22">
-        <v>89.28315881631586</v>
+        <v>54.19293907181471</v>
       </c>
       <c r="G22">
-        <v>1.892110241264764</v>
+        <v>3.641045667506076</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>37.69314134585666</v>
+        <v>21.04712235068359</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.17741517485559</v>
+        <v>5.746335364158111</v>
       </c>
       <c r="D23">
-        <v>12.50025293559658</v>
+        <v>9.106341383913218</v>
       </c>
       <c r="E23">
-        <v>43.44641552317752</v>
+        <v>21.00821895113341</v>
       </c>
       <c r="F23">
-        <v>87.01106835472923</v>
+        <v>53.61201120757797</v>
       </c>
       <c r="G23">
-        <v>1.904448771892782</v>
+        <v>3.643349730190228</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>36.71167505075525</v>
+        <v>20.825226377287</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.204460336915963</v>
+        <v>5.465065659739312</v>
       </c>
       <c r="D24">
-        <v>11.4543886044425</v>
+        <v>8.872790771325123</v>
       </c>
       <c r="E24">
-        <v>38.81576017845432</v>
+        <v>19.42354527306953</v>
       </c>
       <c r="F24">
-        <v>78.66651042887932</v>
+        <v>51.37687554691497</v>
       </c>
       <c r="G24">
-        <v>1.948122837441599</v>
+        <v>3.652356804967226</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>33.08491774731191</v>
+        <v>19.97878249923743</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.154405705463903</v>
+        <v>5.151980689174306</v>
       </c>
       <c r="D25">
-        <v>10.39560840969961</v>
+        <v>8.619043711159742</v>
       </c>
       <c r="E25">
-        <v>34.01183971182642</v>
+        <v>17.61277334444323</v>
       </c>
       <c r="F25">
-        <v>70.09830007731937</v>
+        <v>48.90247185977486</v>
       </c>
       <c r="G25">
-        <v>1.991504438327204</v>
+        <v>3.662681874125008</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>29.21327924669729</v>
+        <v>19.05886960360095</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_155/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_155/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.91503868274033</v>
+        <v>7.35850057895152</v>
       </c>
       <c r="D2">
-        <v>8.431355421129439</v>
+        <v>9.644739826133254</v>
       </c>
       <c r="E2">
-        <v>16.32120603405771</v>
+        <v>30.47308227601821</v>
       </c>
       <c r="F2">
-        <v>47.03836406923052</v>
+        <v>63.87887782304236</v>
       </c>
       <c r="G2">
-        <v>3.670819438127647</v>
+        <v>2.022001288553521</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.38214355479963</v>
+        <v>26.30071315424817</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.751603684059941</v>
+        <v>6.79763129655166</v>
       </c>
       <c r="D3">
-        <v>8.303994852852774</v>
+        <v>9.144852474335543</v>
       </c>
       <c r="E3">
-        <v>15.39775253343196</v>
+        <v>28.02243809837627</v>
       </c>
       <c r="F3">
-        <v>45.75581943335377</v>
+        <v>59.61571282144388</v>
       </c>
       <c r="G3">
-        <v>3.676673723525904</v>
+        <v>2.042327766846305</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.9275243313831</v>
+        <v>24.25723231042845</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.650282341326423</v>
+        <v>6.440874856302401</v>
       </c>
       <c r="D4">
-        <v>8.225840486797102</v>
+        <v>8.840501345869139</v>
       </c>
       <c r="E4">
-        <v>14.80847425741368</v>
+        <v>26.47980110638123</v>
       </c>
       <c r="F4">
-        <v>44.96147644748883</v>
+        <v>56.96271382267993</v>
       </c>
       <c r="G4">
-        <v>3.680437462719171</v>
+        <v>2.054773621502923</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.65165409275166</v>
+        <v>22.96070808321831</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.608820457233893</v>
+        <v>6.292159581451406</v>
       </c>
       <c r="D5">
-        <v>8.194022593157518</v>
+        <v>8.716933031529253</v>
       </c>
       <c r="E5">
-        <v>14.56301185418733</v>
+        <v>25.84016818516875</v>
       </c>
       <c r="F5">
-        <v>44.63647258934079</v>
+        <v>55.8715877444411</v>
       </c>
       <c r="G5">
-        <v>3.682014011228191</v>
+        <v>2.059852928208881</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.54025764445091</v>
+        <v>22.42093260634169</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.601927506422632</v>
+        <v>6.267258304262485</v>
       </c>
       <c r="D6">
-        <v>8.188741661046778</v>
+        <v>8.696437782157385</v>
       </c>
       <c r="E6">
-        <v>14.52194035389332</v>
+        <v>25.73325551895616</v>
       </c>
       <c r="F6">
-        <v>44.58243994344635</v>
+        <v>55.68977986563164</v>
       </c>
       <c r="G6">
-        <v>3.682278387913593</v>
+        <v>2.060697221851117</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.52182806753881</v>
+        <v>22.33058882076904</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.649723772482862</v>
+        <v>6.438882998237791</v>
       </c>
       <c r="D7">
-        <v>8.225411230375277</v>
+        <v>8.838833217521804</v>
       </c>
       <c r="E7">
-        <v>14.80518503190238</v>
+        <v>26.4712210621928</v>
       </c>
       <c r="F7">
-        <v>44.95709803579393</v>
+        <v>56.94804013210037</v>
       </c>
       <c r="G7">
-        <v>3.680458550998166</v>
+        <v>2.054842072846545</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.65014735140937</v>
+        <v>22.9534758728498</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.858929443519326</v>
+        <v>7.167538143651241</v>
       </c>
       <c r="D8">
-        <v>8.38744364215739</v>
+        <v>9.471706064311187</v>
       </c>
       <c r="E8">
-        <v>16.00757100722909</v>
+        <v>29.63501013295587</v>
       </c>
       <c r="F8">
-        <v>46.59781212144669</v>
+        <v>62.41545400662062</v>
       </c>
       <c r="G8">
-        <v>3.672803033779343</v>
+        <v>2.029027756661021</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.22483218937939</v>
+        <v>25.60419952052325</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.258580251619456</v>
+        <v>8.51047420339086</v>
       </c>
       <c r="D9">
-        <v>8.704700534695242</v>
+        <v>10.74625289447514</v>
       </c>
       <c r="E9">
-        <v>18.21314253706674</v>
+        <v>35.62178829862375</v>
       </c>
       <c r="F9">
-        <v>49.74341967607151</v>
+        <v>72.93831986364958</v>
       </c>
       <c r="G9">
-        <v>3.659121444324172</v>
+        <v>1.977207579291725</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.36911012000945</v>
+        <v>30.52199994000834</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.542251486543845</v>
+        <v>9.467197865791309</v>
       </c>
       <c r="D10">
-        <v>8.936358318052488</v>
+        <v>11.73077441886329</v>
       </c>
       <c r="E10">
-        <v>19.8650251140621</v>
+        <v>40.04691480473319</v>
       </c>
       <c r="F10">
-        <v>51.98906720236063</v>
+        <v>80.90095884776956</v>
       </c>
       <c r="G10">
-        <v>3.649864626687362</v>
+        <v>1.936673606901762</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.2093545199134</v>
+        <v>34.06002751279431</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.668512670147665</v>
+        <v>9.903386446952815</v>
       </c>
       <c r="D11">
-        <v>9.04119765235502</v>
+        <v>12.19950006198551</v>
       </c>
       <c r="E11">
-        <v>20.57613065875274</v>
+        <v>42.12144377905947</v>
       </c>
       <c r="F11">
-        <v>52.99240436809512</v>
+        <v>84.64144278358364</v>
       </c>
       <c r="G11">
-        <v>3.645822553192565</v>
+        <v>1.917108952469095</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.58936138233784</v>
+        <v>35.68562576600193</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.715879428359457</v>
+        <v>10.06962834933823</v>
       </c>
       <c r="D12">
-        <v>9.080799962636652</v>
+        <v>12.38137547330799</v>
       </c>
       <c r="E12">
-        <v>20.83965277867336</v>
+        <v>42.92311807964217</v>
       </c>
       <c r="F12">
-        <v>53.36941990072702</v>
+        <v>86.07717426223671</v>
       </c>
       <c r="G12">
-        <v>3.644315930736049</v>
+        <v>1.909463347557468</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.7327770758288</v>
+        <v>36.30761620372279</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.705698638392763</v>
+        <v>10.03375886183498</v>
       </c>
       <c r="D13">
-        <v>9.072275570628467</v>
+        <v>12.34198180635067</v>
       </c>
       <c r="E13">
-        <v>20.78315397868444</v>
+        <v>42.74959613263574</v>
       </c>
       <c r="F13">
-        <v>53.28835760578055</v>
+        <v>85.76691613068149</v>
       </c>
       <c r="G13">
-        <v>3.644639344644899</v>
+        <v>1.911122043748131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.70191398808173</v>
+        <v>36.17329029652213</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.672418734992571</v>
+        <v>9.917035237864956</v>
       </c>
       <c r="D14">
-        <v>9.044457836228318</v>
+        <v>12.2143651742455</v>
       </c>
       <c r="E14">
-        <v>20.5979259348419</v>
+        <v>42.18702226801931</v>
       </c>
       <c r="F14">
-        <v>53.02348197231183</v>
+        <v>84.75910788788403</v>
       </c>
       <c r="G14">
-        <v>3.645698122523621</v>
+        <v>1.916485234745844</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.60117089110901</v>
+        <v>35.73663922387865</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.651974538542479</v>
+        <v>9.845711363677939</v>
       </c>
       <c r="D15">
-        <v>9.027405315242685</v>
+        <v>12.13681793732554</v>
       </c>
       <c r="E15">
-        <v>20.48371982026693</v>
+        <v>41.84479517837111</v>
       </c>
       <c r="F15">
-        <v>52.86084825480727</v>
+        <v>84.14464735980589</v>
       </c>
       <c r="G15">
-        <v>3.646349775158401</v>
+        <v>1.919736736301423</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.53939503792302</v>
+        <v>35.47016296193831</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.533940024560027</v>
+        <v>9.438782890602679</v>
       </c>
       <c r="D16">
-        <v>8.929494173847173</v>
+        <v>11.70066684235933</v>
       </c>
       <c r="E16">
-        <v>19.81774456872767</v>
+        <v>39.9131295279319</v>
       </c>
       <c r="F16">
-        <v>51.92310330769706</v>
+        <v>80.65862660735938</v>
       </c>
       <c r="G16">
-        <v>3.650132161836786</v>
+        <v>1.937923798383099</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.18446105026619</v>
+        <v>33.95442956124491</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.460783016452749</v>
+        <v>9.189951299381859</v>
       </c>
       <c r="D17">
-        <v>8.869275403159387</v>
+        <v>11.43925708079793</v>
       </c>
       <c r="E17">
-        <v>19.39888802430311</v>
+        <v>38.74814752885572</v>
       </c>
       <c r="F17">
-        <v>51.34293392770114</v>
+        <v>78.54352893424851</v>
       </c>
       <c r="G17">
-        <v>3.652495605400301</v>
+        <v>1.948747928705466</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.9660296934871</v>
+        <v>33.03115217233161</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.418445541145674</v>
+        <v>9.046850352473227</v>
       </c>
       <c r="D18">
-        <v>8.8345892198179</v>
+        <v>11.29075655239695</v>
       </c>
       <c r="E18">
-        <v>19.1541728429543</v>
+        <v>38.08330669092414</v>
       </c>
       <c r="F18">
-        <v>51.00753755292568</v>
+        <v>77.33289245239123</v>
       </c>
       <c r="G18">
-        <v>3.65387090921125</v>
+        <v>1.954873525281188</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.84019346950317</v>
+        <v>32.50131094787899</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.40406770275662</v>
+        <v>8.998379425589299</v>
       </c>
       <c r="D19">
-        <v>8.822837115119365</v>
+        <v>11.24076233366424</v>
       </c>
       <c r="E19">
-        <v>19.07066252029075</v>
+        <v>37.85892570352273</v>
       </c>
       <c r="F19">
-        <v>50.89369621216496</v>
+        <v>76.92378453181942</v>
       </c>
       <c r="G19">
-        <v>3.654339304629665</v>
+        <v>1.956932181106566</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.79755830740032</v>
+        <v>32.32202222260155</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.468597908251446</v>
+        <v>9.216432108029011</v>
       </c>
       <c r="D20">
-        <v>8.875691109180126</v>
+        <v>11.46688437842742</v>
       </c>
       <c r="E20">
-        <v>19.44386898781196</v>
+        <v>38.87157787328887</v>
       </c>
       <c r="F20">
-        <v>51.40487202354698</v>
+        <v>78.76801800521022</v>
       </c>
       <c r="G20">
-        <v>3.652242367710552</v>
+        <v>1.947606499115932</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.98930404554962</v>
+        <v>33.12928740211376</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.682206280372289</v>
+        <v>9.951281586340373</v>
       </c>
       <c r="D21">
-        <v>9.052631397291929</v>
+        <v>12.25171633324961</v>
       </c>
       <c r="E21">
-        <v>20.65248782938567</v>
+        <v>42.35175302358346</v>
       </c>
       <c r="F21">
-        <v>53.10136409750766</v>
+        <v>85.05450910766989</v>
       </c>
       <c r="G21">
-        <v>3.645386483937823</v>
+        <v>1.914917120726215</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.63077598637985</v>
+        <v>35.86467905725956</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.819196796718298</v>
+        <v>10.43851321335777</v>
       </c>
       <c r="D22">
-        <v>9.167691625065979</v>
+        <v>12.79134018768555</v>
       </c>
       <c r="E22">
-        <v>21.40884756997446</v>
+        <v>44.72621026084933</v>
       </c>
       <c r="F22">
-        <v>54.19293907181471</v>
+        <v>89.28315881631575</v>
       </c>
       <c r="G22">
-        <v>3.641045667506076</v>
+        <v>1.892110241264662</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.04712235068359</v>
+        <v>37.69314134585656</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.746335364158111</v>
+        <v>10.17741517485557</v>
       </c>
       <c r="D23">
-        <v>9.106341383913218</v>
+        <v>12.5002529355965</v>
       </c>
       <c r="E23">
-        <v>21.00821895113341</v>
+        <v>43.44641552317736</v>
       </c>
       <c r="F23">
-        <v>53.61201120757797</v>
+        <v>87.01106835472876</v>
       </c>
       <c r="G23">
-        <v>3.643349730190228</v>
+        <v>1.904448771892516</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.825226377287</v>
+        <v>36.71167505075507</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.465065659739312</v>
+        <v>9.204460336915822</v>
       </c>
       <c r="D24">
-        <v>8.872790771325123</v>
+        <v>11.45438860444255</v>
       </c>
       <c r="E24">
-        <v>19.42354527306953</v>
+        <v>38.81576017845425</v>
       </c>
       <c r="F24">
-        <v>51.37687554691497</v>
+        <v>78.66651042887955</v>
       </c>
       <c r="G24">
-        <v>3.652356804967226</v>
+        <v>1.948122837441867</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.97878249923743</v>
+        <v>33.08491774731203</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.151980689174306</v>
+        <v>8.154405705464079</v>
       </c>
       <c r="D25">
-        <v>8.619043711159742</v>
+        <v>10.39560840969957</v>
       </c>
       <c r="E25">
-        <v>17.61277334444323</v>
+        <v>34.01183971182651</v>
       </c>
       <c r="F25">
-        <v>48.90247185977486</v>
+        <v>70.09830007731942</v>
       </c>
       <c r="G25">
-        <v>3.662681874125008</v>
+        <v>1.991504438327322</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.05886960360095</v>
+        <v>29.21327924669723</v>
       </c>
       <c r="L25">
         <v>0</v>
